--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1596.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1596.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.343523704290016</v>
+        <v>0.587199866771698</v>
       </c>
       <c r="B1">
-        <v>3.367715126870986</v>
+        <v>2.685224294662476</v>
       </c>
       <c r="C1">
-        <v>5.227713919824248</v>
+        <v>6.423510551452637</v>
       </c>
       <c r="D1">
-        <v>1.642029635296548</v>
+        <v>1.85191535949707</v>
       </c>
       <c r="E1">
-        <v>0.9017402874288294</v>
+        <v>1.586808681488037</v>
       </c>
     </row>
   </sheetData>
